--- a/batches/23/week_01/day_01/day_01.xlsx
+++ b/batches/23/week_01/day_01/day_01.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shira/Documents/work/acciojob/modules/sql/batches/23/01_foundation_building/01_intro_to_sql_installation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shira/Documents/work/acciojob/modules/sql/batches/23/week_01/day_01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7362AE55-B654-D544-9DEC-A8F594667BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6CFE3C-7276-8F4E-B724-EE32F093278D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{C9BC2D6A-EA00-F249-8781-208083C16854}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Agenda" sheetId="1" r:id="rId1"/>
+    <sheet name="intro" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,9 +36,335 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="107">
+  <si>
+    <t>📋 TODAY'S AGENDA (2 Hours)</t>
+  </si>
+  <si>
+    <t>═══════════════════════════════════════════════════════════</t>
+  </si>
+  <si>
+    <t>Part 1: Understanding SQL (35 mins)</t>
+  </si>
+  <si>
+    <t>- Topic 1.1: Introduction to SQL (What, Why, When)</t>
+  </si>
+  <si>
+    <t>- Topic 1.2: Components of SQL (DDL, DML, DCL, TCL, DQL)</t>
+  </si>
+  <si>
+    <t>- Topic 1.3: Database vs Schema</t>
+  </si>
+  <si>
+    <t>Part 2: Database Concepts (25 mins)</t>
+  </si>
+  <si>
+    <t>- Topic 2.1: Database Objects (Table, View, Index)</t>
+  </si>
+  <si>
+    <t>- Topic 2.2: DBMS vs RDBMS</t>
+  </si>
+  <si>
+    <t>- Topic 2.3: PostgreSQL Architecture</t>
+  </si>
+  <si>
+    <t>Part 3: Installation &amp; Setup (50 mins)</t>
+  </si>
+  <si>
+    <t>- Topic 3.2: Install and Configure pgAdmin 4</t>
+  </si>
+  <si>
+    <t>- Topic 3.3: Install VS Code with SQL Extensions</t>
+  </si>
+  <si>
+    <t>- Topic 3.4: Verify Installation</t>
+  </si>
+  <si>
+    <t>SQL is  tool to store the data</t>
+  </si>
+  <si>
+    <t>we can manage and get insights</t>
+  </si>
+  <si>
+    <t>manage relational database</t>
+  </si>
+  <si>
+    <t>interact with database</t>
+  </si>
+  <si>
+    <t>filter out the data as per the requirement</t>
+  </si>
+  <si>
+    <t>only works with tabular data</t>
+  </si>
+  <si>
+    <t>modify update delete the data</t>
+  </si>
+  <si>
+    <t>combine the table</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Ecommerce</t>
+  </si>
+  <si>
+    <t>connects</t>
+  </si>
+  <si>
+    <t>buyers</t>
+  </si>
+  <si>
+    <t>sellers</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>bridge</t>
+  </si>
+  <si>
+    <t>Customer Lko</t>
+  </si>
+  <si>
+    <t>product1</t>
+  </si>
+  <si>
+    <t>Seller Banglore</t>
+  </si>
+  <si>
+    <t>single day</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>Warehouse</t>
+  </si>
+  <si>
+    <t>Inventory of products</t>
+  </si>
+  <si>
+    <t>Storing the products</t>
+  </si>
+  <si>
+    <t>customer will not have access to this warehouse</t>
+  </si>
+  <si>
+    <t>Electronic</t>
+  </si>
+  <si>
+    <t>Accessories</t>
+  </si>
+  <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>Veg</t>
+  </si>
+  <si>
+    <t>Fruits</t>
+  </si>
+  <si>
+    <t>Employees =&gt; Warehouse</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Data Warehouse</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Schema</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>DBMS</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Data Lake</t>
+  </si>
+  <si>
+    <t>SQL (Structured Query Language) is a standardized programming language specifically designed for managing, manipulating, and querying data stored in Relational Database Management Systems (RDBMS). It provides a declarative syntax to perform operations like data retrieval, insertion, modification, deletion, and database structure management.</t>
+  </si>
+  <si>
+    <t>Parts of speech</t>
+  </si>
+  <si>
+    <t>Noun</t>
+  </si>
+  <si>
+    <t>Pronoun</t>
+  </si>
+  <si>
+    <t>Adjective</t>
+  </si>
+  <si>
+    <t>Verb</t>
+  </si>
+  <si>
+    <t>Adverb</t>
+  </si>
+  <si>
+    <t>Conjuction</t>
+  </si>
+  <si>
+    <t>Preposition</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>DDL</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>DML</t>
+  </si>
+  <si>
+    <t>Manipulation</t>
+  </si>
+  <si>
+    <t>DQL</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>DCL</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>TCL</t>
+  </si>
+  <si>
+    <t>Transaction</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>alter</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>truncate</t>
+  </si>
+  <si>
+    <t>insert</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>Grant</t>
+  </si>
+  <si>
+    <t>revoke</t>
+  </si>
+  <si>
+    <t>Database Vs Schema</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>M V</t>
+  </si>
+  <si>
+    <t>Stored Proce</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Trigger</t>
+  </si>
+  <si>
+    <t>Jobs</t>
+  </si>
+  <si>
+    <t>Contraints</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>Access</t>
+  </si>
+  <si>
+    <t>Google Sheet</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>SQL Server</t>
+  </si>
+  <si>
+    <t>SSMS</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>Mysql</t>
+  </si>
+  <si>
+    <t>Postgres</t>
+  </si>
+  <si>
+    <t>AzureSQL</t>
+  </si>
+  <si>
+    <t>pgadmin4</t>
+  </si>
+  <si>
+    <t>Unix</t>
+  </si>
+  <si>
+    <t>Topic 3.1: Install PostgreSQL 18</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -45,13 +372,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -63,13 +408,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -83,6 +437,341 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3056466</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>8467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>524934</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>135467</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Frame 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A6F99FB-7D57-5CDA-A2DF-C93BFC10F72E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5985933" y="12810067"/>
+          <a:ext cx="9973734" cy="5003800"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1671"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>143934</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>372533</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>8466</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Frame 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A944109-A8A3-C94F-9312-3E8B78D97F8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6163734" y="12928599"/>
+          <a:ext cx="3005666" cy="4758267"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1671"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>135465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>118533</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>16932</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Frame 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65B0463B-45DD-9941-83A9-4B54C9738BA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9228667" y="12937065"/>
+          <a:ext cx="3005666" cy="4758267"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1671"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>160867</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>135465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>194733</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>16932</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Frame 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59669527-E567-4C4E-BB64-8C18AAF1B7C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12276667" y="12937065"/>
+          <a:ext cx="1693333" cy="4758267"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1671"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>245533</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>8466</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Frame 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7694372D-52D8-9D45-B60D-DF661D4CDD46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14020800" y="12928599"/>
+          <a:ext cx="1820333" cy="4758267"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1671"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,14 +1091,688 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B9B2D1-403C-234F-9891-29050779A26E}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" zoomScale="210" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
+    <col min="2" max="2" width="61.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF92B3B7-B6B1-724D-97AD-FB8819348D73}">
+  <dimension ref="B2:N99"/>
+  <sheetViews>
+    <sheetView topLeftCell="A88" zoomScale="200" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.1640625" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B43" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" t="s">
+        <v>68</v>
+      </c>
+      <c r="F53" t="s">
+        <v>64</v>
+      </c>
+      <c r="G53" t="s">
+        <v>74</v>
+      </c>
+      <c r="H53" t="s">
+        <v>75</v>
+      </c>
+      <c r="I53" t="s">
+        <v>76</v>
+      </c>
+      <c r="J53" t="s">
+        <v>77</v>
+      </c>
+      <c r="K53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" t="s">
+        <v>66</v>
+      </c>
+      <c r="F54" t="s">
+        <v>64</v>
+      </c>
+      <c r="G54" t="s">
+        <v>79</v>
+      </c>
+      <c r="H54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" t="s">
+        <v>69</v>
+      </c>
+      <c r="F55" t="s">
+        <v>64</v>
+      </c>
+      <c r="G55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" t="s">
+        <v>71</v>
+      </c>
+      <c r="F56" t="s">
+        <v>64</v>
+      </c>
+      <c r="G56" t="s">
+        <v>82</v>
+      </c>
+      <c r="H56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" t="s">
+        <v>71</v>
+      </c>
+      <c r="F57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>86</v>
+      </c>
+      <c r="E66" t="s">
+        <v>85</v>
+      </c>
+      <c r="H66" t="s">
+        <v>85</v>
+      </c>
+      <c r="L66" t="s">
+        <v>85</v>
+      </c>
+      <c r="N66" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>87</v>
+      </c>
+      <c r="E67" t="s">
+        <v>86</v>
+      </c>
+      <c r="H67" t="s">
+        <v>86</v>
+      </c>
+      <c r="L67" t="s">
+        <v>86</v>
+      </c>
+      <c r="N67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E68" t="s">
+        <v>87</v>
+      </c>
+      <c r="H68" t="s">
+        <v>87</v>
+      </c>
+      <c r="L68" t="s">
+        <v>87</v>
+      </c>
+      <c r="N68" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>89</v>
+      </c>
+      <c r="E69" t="s">
+        <v>88</v>
+      </c>
+      <c r="H69" t="s">
+        <v>88</v>
+      </c>
+      <c r="L69" t="s">
+        <v>88</v>
+      </c>
+      <c r="N69" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>90</v>
+      </c>
+      <c r="E70" t="s">
+        <v>89</v>
+      </c>
+      <c r="H70" t="s">
+        <v>89</v>
+      </c>
+      <c r="L70" t="s">
+        <v>89</v>
+      </c>
+      <c r="N70" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" t="s">
+        <v>90</v>
+      </c>
+      <c r="H71" t="s">
+        <v>90</v>
+      </c>
+      <c r="L71" t="s">
+        <v>90</v>
+      </c>
+      <c r="N71" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>92</v>
+      </c>
+      <c r="E72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H72" t="s">
+        <v>91</v>
+      </c>
+      <c r="L72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>47</v>
+      </c>
+      <c r="E73" t="s">
+        <v>92</v>
+      </c>
+      <c r="H73" t="s">
+        <v>92</v>
+      </c>
+      <c r="L73" t="s">
+        <v>92</v>
+      </c>
+      <c r="N73" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92" t="s">
+        <v>97</v>
+      </c>
+      <c r="D92" t="s">
+        <v>98</v>
+      </c>
+      <c r="E92" t="s">
+        <v>99</v>
+      </c>
+      <c r="F92" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C93" t="s">
+        <v>100</v>
+      </c>
+      <c r="D93" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>95</v>
+      </c>
+      <c r="D94" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95" t="s">
+        <v>102</v>
+      </c>
+      <c r="D95" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="B43:G49"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>